--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nrtn-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nrtn-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1058645</v>
+        <v>0.452919</v>
       </c>
       <c r="N2">
-        <v>0.211729</v>
+        <v>0.905838</v>
       </c>
       <c r="O2">
-        <v>0.009133991451461642</v>
+        <v>0.03428003430836644</v>
       </c>
       <c r="P2">
-        <v>0.007982871865007578</v>
+        <v>0.03049201402277582</v>
       </c>
       <c r="Q2">
-        <v>0.01283432386075</v>
+        <v>0.0549089555865</v>
       </c>
       <c r="R2">
-        <v>0.051337295443</v>
+        <v>0.219635822346</v>
       </c>
       <c r="S2">
-        <v>0.009133991451461642</v>
+        <v>0.03428003430836644</v>
       </c>
       <c r="T2">
-        <v>0.007982871865007578</v>
+        <v>0.03049201402277582</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.282732333333334</v>
+        <v>3.282732333333333</v>
       </c>
       <c r="N3">
-        <v>9.848197000000001</v>
+        <v>9.848196999999999</v>
       </c>
       <c r="O3">
-        <v>0.2832342198763835</v>
+        <v>0.2484598283839946</v>
       </c>
       <c r="P3">
-        <v>0.3713090542738691</v>
+        <v>0.3315066943791922</v>
       </c>
       <c r="Q3">
-        <v>0.3979771303331667</v>
+        <v>0.3979771303331666</v>
       </c>
       <c r="R3">
-        <v>2.387862781999</v>
+        <v>2.387862781998999</v>
       </c>
       <c r="S3">
-        <v>0.2832342198763835</v>
+        <v>0.2484598283839946</v>
       </c>
       <c r="T3">
-        <v>0.3713090542738691</v>
+        <v>0.3315066943791922</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,90 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.141729999999999</v>
+        <v>9.476675</v>
       </c>
       <c r="N4">
-        <v>16.28346</v>
+        <v>18.95335</v>
       </c>
       <c r="O4">
-        <v>0.7024686483203414</v>
+        <v>0.7172601373076389</v>
       </c>
       <c r="P4">
-        <v>0.6139393975269154</v>
+        <v>0.638001291598032</v>
       </c>
       <c r="Q4">
-        <v>0.987050423955</v>
+        <v>1.1488904786125</v>
       </c>
       <c r="R4">
-        <v>3.94820169582</v>
+        <v>4.59556191445</v>
       </c>
       <c r="S4">
-        <v>0.7024686483203414</v>
+        <v>0.7172601373076389</v>
       </c>
       <c r="T4">
-        <v>0.6139393975269154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>0.1212335</v>
-      </c>
-      <c r="H5">
-        <v>0.242467</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.05984166666666666</v>
-      </c>
-      <c r="N5">
-        <v>0.179525</v>
-      </c>
-      <c r="O5">
-        <v>0.005163140351813406</v>
-      </c>
-      <c r="P5">
-        <v>0.006768676334207809</v>
-      </c>
-      <c r="Q5">
-        <v>0.007254814695833333</v>
-      </c>
-      <c r="R5">
-        <v>0.043528888175</v>
-      </c>
-      <c r="S5">
-        <v>0.005163140351813406</v>
-      </c>
-      <c r="T5">
-        <v>0.006768676334207809</v>
+        <v>0.638001291598032</v>
       </c>
     </row>
   </sheetData>
